--- a/supp_data/pcawg_positive_sig_sig_survivals_nonepi.xlsx
+++ b/supp_data/pcawg_positive_sig_sig_survivals_nonepi.xlsx
@@ -7,320 +7,523 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Eso_AdenoCA__APOBEC+HR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Prost_AdenoCA__SBS5+ROS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Panc_Endocrine__SBS39+PolH" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Eso_AdenoCA__HR+APOBEC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Eso_AdenoCA__APOBEC+HR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Prost_AdenoCA__CL SBS5+ROS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Panc_Endocrine__PolH+SBS39" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Panc_Endocrine__SBS39+PolH" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+  <si>
+    <t xml:space="preserve">Biliary_AdenoCA__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">coef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se(coef)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr(&gt;|z|)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_at_diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(total_muts + 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model log-likelihoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.28267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.53284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.70244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Both models fit equally well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.339,   p = 0.641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical likelihood ratio test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.339,   p = 0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.83398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-nested likelihood ratio test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   p = 0.545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   p = 0.4552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.112,   two-sided p = 0.9105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.22748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.050,   p = 0.188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.050,   p = 0.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.472941680679752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-766.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.0581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.231,   p = 0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.231,   p = 0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.0944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   p = 0.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   p = 0.514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.035,   two-sided p = 0.9721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.2338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.120,   p = 0.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.120,   p = 0.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.562164667070853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-218.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.536,   p = 0.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.536,   p = 0.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.5621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   p = 0.487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   p = 0.5135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.034,   two-sided p = 0.9731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.7981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.401,   p = 0.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.401,   p = 0.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.394572326241662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__CL SBS1+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.41764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.42495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.308501884901026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.4501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.92833458214088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.50231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.68693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.55216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.53993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.98880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.9890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.0729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.1907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.236,   p = 0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.236,   p = 0.627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   p = 0.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   p = 0.5057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.014,   two-sided p = 0.9886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-166.3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.244,   p = 0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.244,   p = 0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.00158941726621093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__HR+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.9621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.8574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   p = 0.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   p = 0.5206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.052,   two-sided p = 0.9588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.7851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.646,   p = 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.646,   p = 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.573314295354439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.7486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.469,   p = 0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.469,   p = 0.493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.5328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   p = 0.638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   p = 0.3623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.352,   two-sided p = 0.7247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.7422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.518,   p = 0.215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.518,   p = 0.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.673990455325615</t>
+  </si>
   <si>
     <t xml:space="preserve">Biliary_AdenoCA__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">coef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se(coef)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pr(&gt;|z|)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_at_diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(total_muts + 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model log-likelihoods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.28267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.53284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ log(total_muts + 1) + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.70244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 2 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variance test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model 1 and Model 2 are indistinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model 1 and Model 2 are distinguishable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robust likelihood ratio test of distinguishable models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Both models fit equally well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Full model fits better than reduced model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.339,   p = 0.641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classical likelihood ratio test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.339,   p = 0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.83398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-nested likelihood ratio test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H0: Model fits are equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1A: Model 1 fits better than Model 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   p = 0.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1B: Model 2 fits better than Model 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   p = 0.4552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H1: Model fits not equally close to true Model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.112,   two-sided p = 0.9105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surv(survival_time, vital_status) ~ status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.22748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.050,   p = 0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.050,   p = 0.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.472941680679752</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_AdenoCA__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">-766.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.0581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.1738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.231,   p = 0.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.231,   p = 0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.0944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   p = 0.486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   p = 0.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.035,   two-sided p = 0.9721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.2338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.120,   p = 0.142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.120,   p = 0.145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.562164667070853</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">-218.7649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.536,   p = 0.482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.536,   p = 0.464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.5621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   p = 0.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   p = 0.5135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.034,   two-sided p = 0.9731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.7981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.401,   p = 0.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.401,   p = 0.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.394572326241662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_Endocrine__APOBEC+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+APOBEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.41764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.42495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.308501884901026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__APOBEC+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.4501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.92833458214088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_GBM__SBS40+Ageing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS40</t>
+    <t xml:space="preserve">CNS_GBM__CL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-78.09222</t>
@@ -329,10 +532,7 @@
     <t xml:space="preserve">-74.64116</t>
   </si>
   <si>
-    <t xml:space="preserve">p-value of interaction in this model: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+Ageing</t>
+    <t xml:space="preserve">CNS_Medullo__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-58.13424</t>
@@ -341,7 +541,7 @@
     <t xml:space="preserve">-55.85849</t>
   </si>
   <si>
-    <t xml:space="preserve">Kidney_RCC__SBS40+Ageing</t>
+    <t xml:space="preserve">Kidney_RCC__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-153.1478</t>
@@ -350,7 +550,7 @@
     <t xml:space="preserve">-152.5131</t>
   </si>
   <si>
-    <t xml:space="preserve">Liver_HCC__SBS40+Ageing</t>
+    <t xml:space="preserve">Liver_HCC__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-340.6947</t>
@@ -401,7 +601,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.330763805657542</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Lung_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-25.19122</t>
@@ -413,7 +613,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.89130032187484</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+Ageing</t>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-28.17861</t>
@@ -422,13 +622,13 @@
     <t xml:space="preserve">-22.71965</t>
   </si>
   <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-764.3111</t>
   </si>
   <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-24.91025</t>
@@ -437,7 +637,7 @@
     <t xml:space="preserve">-23.72442</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS40+Ageing</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-217.4395</t>
@@ -446,7 +646,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.88483841865385</t>
   </si>
   <si>
-    <t xml:space="preserve">Thy_AdenoCA__SBS40+Ageing</t>
+    <t xml:space="preserve">Thy_AdenoCA__CL SBS1+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-1.791759</t>
@@ -455,1363 +655,1120 @@
     <t xml:space="preserve">-1.762747</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.50231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.68693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.55216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.53993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__SBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS40+SBS5</t>
+    <t xml:space="preserve">CNS_Medullo__CL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-23.40629</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.93872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS_Medullo__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.08392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+SBS5</t>
+    <t xml:space="preserve">Ovary_AdenoCA__HR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.0140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-334.1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-335.1404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.972,   p = 0.0981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.972,   p = 0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-336.4796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   p = 0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   p = 0.3198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.468,   two-sided p = 0.6397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-337.1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.932,   p = 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.932,   p = 0.0474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.565821396599445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__MMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.35687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.32554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.937,   p = 0.0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.937,   p = 0.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998747841807093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.6709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.062,   p = 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.062,   p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   p = 0.535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   p = 0.465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.088,   two-sided p = 0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.7816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.160,   p = 0.744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.160,   p = 0.689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.618820513424145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.968725624660762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.6358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.411,   p = 0.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.411,   p = 0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-215.8742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   p = 0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   p = 0.4205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.201,   two-sided p = 0.8411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-216.0369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.802,   p = 0.312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.802,   p = 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.961365191268632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__APOBEC+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCA__SBS40+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.19561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.88926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.387,   p = 0.00379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.387,   p = 0.00657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.54246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.694,   p = 0.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.694,   p = 0.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.25289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.421,   p = 7e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.421,   p = 0.00215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998741533737094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.39569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.01151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.232,   p = 0.0185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.232,   p = 0.00716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.79160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.792,   p = 0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.792,   p = 0.374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.45223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.321,   p = 0.00687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.321,   p = 0.00227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998835113603043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__SBS30+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.45059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.80072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.700,   p = 0.406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.700,   p = 0.403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.63189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   p = 0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   p = 0.1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.158,   two-sided p = 0.2468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.46553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.330,   p = 0.000802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 5.330,   p = 0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.836355209815392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS1+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.78468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-761.1667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.850133255893492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.25388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.37036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.233,   p = 0.617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.233,   p = 0.629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   p = 0.818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   p = 0.1823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.907,   two-sided p = 0.3647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.13890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.537,   p = 0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.537,   p = 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0775697677179754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_Endocrine__PolH+SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolH+SBS39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.08514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.0892132688795749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS40+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS1+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-6.579251</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.692707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.77068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_CLL__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-134.7144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-125.4539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid_MPN__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.65889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.0140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.0547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_Endocrine__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.46608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.298745146228489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__Ageing+SBS5</t>
+    <t xml:space="preserve">-2.722801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCA__CL SBS1+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.60904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.94247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCA__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.10441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.46552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS34+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.26094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.13334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.745,   p = 0.00359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.745,   p = 0.00539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.89980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.278,   p = 0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.278,   p = 0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.26476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.730,   p = 0.000469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.730,   p = 0.00105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999157416462696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.38362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.26028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.753,   p = 0.0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.753,   p = 0.00536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.02421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.281,   p = 0.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.281,   p = 0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.32436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.600,   p = 0.00528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.600,   p = 0.00113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999062301243172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__Technical+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.17473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.57545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.801,   p = 0.00798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.801,   p = 0.00911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.32231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.295,   p = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.295,   p = 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.19934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.754,   p = 0.0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.754,   p = 0.00179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999389552974429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.420771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__SBS28+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.589820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.358847322509582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__CL SBS5+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.646689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCA__PolE+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS17+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-764.0746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.505214202256596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS40+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS1+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.74263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998615575425441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso_AdenoCA__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.8311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.76306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999058274663046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__CL SBS5+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.7085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.1084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.800,   p = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.800,   p = 0.0943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-765.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.591,   p = 0.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.591,   p = 0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-766.3056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.603,   p = 0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.603,   p = 0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.616500500184071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panc_AdenoCA__SBS28+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.15880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCA__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.42166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.50507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.99977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.3999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS29+SBS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS12+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.0740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.065,   p = 0.841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.065,   p = 0.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.7288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   p = 0.676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   p = 0.3235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.458,   two-sided p = 0.6471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-339.7289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.245,   p = 0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.245,   p = 0.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.271412078215257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__CL SBS5+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-340.2408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver_HCC__SBS12+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.80254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.99905828329675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__HR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__MMR+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__SBS37+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.42517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.58834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.326,   p = 0.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.326,   p = 0.0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.00416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.158,   p = 0.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.158,   p = 0.282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.87468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.741,   p = 0.00157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.741,   p = 0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.988380057307369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__Technical+SBS34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS34+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.87222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.15775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.571,   p = 0.00735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.571,   p = 0.0104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.73248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.721,   p = 0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.721,   p = 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.35762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.250,   p = 0.00101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.250,   p = 0.00235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999104167968756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph_BNHL__CL SBS5+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.76506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999092401524031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prost_AdenoCA__CL SBS5+SBS37</t>
   </si>
   <si>
     <t xml:space="preserve">-23.45713</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.4436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.6509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.415,   p = 0.559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.415,   p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.9269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.4231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-218.3958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.490,   p = 0.262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.490,   p = 0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.431075461038286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thy_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.789672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.10441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.65731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.98880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.9890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.0729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.1907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.236,   p = 0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.236,   p = 0.627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   p = 0.494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   p = 0.5057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.014,   two-sided p = 0.9886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166.3124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.244,   p = 0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.244,   p = 0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00158941726621093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__APOBEC+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.0243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.9621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.8574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   p = 0.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   p = 0.5206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.052,   two-sided p = 0.9588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.7851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.646,   p = 0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.646,   p = 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.573314295354439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCA__SBS40+HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-334.1545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-335.1404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.972,   p = 0.0981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.972,   p = 0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-336.4796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   p = 0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   p = 0.3198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.468,   two-sided p = 0.6397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-337.1061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.932,   p = 0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.932,   p = 0.0474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.565821396599445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__Ageing+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.78468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS5+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusROS+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-761.1667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.850133255893492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS5+ROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.25388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.37036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.233,   p = 0.617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.233,   p = 0.629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   p = 0.818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   p = 0.1823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.907,   two-sided p = 0.3647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.13890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.537,   p = 0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.537,   p = 0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.077569767717975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS40+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.35687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.32554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.937,   p = 0.0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.937,   p = 0.0472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998747841807093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.722801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCA__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.60904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.94247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCA__SBS5+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.46552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.420771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__SBS5+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS28+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.646689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCA__PolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.589820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.358847322509582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS40+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.6709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.062,   p = 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.062,   p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   p = 0.535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   p = 0.465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.088,   two-sided p = 0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.7816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.160,   p = 0.744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.160,   p = 0.689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.618820513424145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS40+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.968725624660762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__Ageing+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.74263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998615575425441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCA__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.8311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.76306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999058274663046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS5+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-763.7085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.1084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.800,   p = 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.800,   p = 0.0943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-765.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.591,   p = 0.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.591,   p = 0.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-766.3056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 3	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.603,   p = 0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.603,   p = 0.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.616500500184097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panc_AdenoCA__SBS28+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.0746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.505214202256596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.15880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCA__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.42166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.50507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.99977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+SBS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS12+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.3999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS5+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS29+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-340.2408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver_HCC__SBS12+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS12+SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.0740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.1063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.065,   p = 0.841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.065,   p = 0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.7288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   p = 0.676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   p = 0.3235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.458,   two-sided p = 0.6471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-339.7289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.245,   p = 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.245,   p = 0.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.271412078215257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS34+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.80254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.99905828329675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__HR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.19561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.88926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.387,   p = 0.00379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.387,   p = 0.00657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.54246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.694,   p = 0.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.694,   p = 0.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.25289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.421,   p = 7e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.421,   p = 0.00215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998741533737094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__MMR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.26094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.13334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.745,   p = 0.00359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.745,   p = 0.00539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.89980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.278,   p = 0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.278,   p = 0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.26476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.730,   p = 0.000469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.730,   p = 0.00105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999157416462696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph_BNHL__SBS5+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS37+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.76506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999092401524031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prost_AdenoCA__SBS5+SBS37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__HR+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">statusHR+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.39569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.01151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.232,   p = 0.0185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.232,   p = 0.00716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.79160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.792,   p = 0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.792,   p = 0.374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.45223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.321,   p = 0.00687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.321,   p = 0.00227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998835113603043</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__MMR+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">statusMMR+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.38362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.26028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.753,   p = 0.0177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.753,   p = 0.00536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.02421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.281,   p = 0.202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.281,   p = 0.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.32436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.600,   p = 0.00528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.600,   p = 0.00113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999062301243172</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS34+SBS37</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS34+SBS37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.42517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.58834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.326,   p = 0.0167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.326,   p = 0.0119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.00416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.158,   p = 0.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.158,   p = 0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.87468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.741,   p = 0.00157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.741,   p = 0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.988380057307369</t>
+    <t xml:space="preserve">Lymph_BNHL__Technical+SBS37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS37+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.97420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.44087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.933,   p = 0.0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 6.933,   p = 0.00846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.91223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 1.876,   p = 0.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.64213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.460,   p = 0.00849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.460,   p = 0.0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.999269265937025</t>
   </si>
   <si>
     <t xml:space="preserve">Lymph_BNHL__MMR+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">statusTechnical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.17473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.57545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.801,   p = 0.00798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.801,   p = 0.00911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.32231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.295,   p = 0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.295,   p = 0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.19934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.754,   p = 0.0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.754,   p = 0.00179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999389552974429</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS34+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS34+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.87222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.15775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.571,   p = 0.00735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.571,   p = 0.0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.73248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.721,   p = 0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.721,   p = 0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.35762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.250,   p = 0.00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.250,   p = 0.00235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999104167968756</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymph_BNHL__SBS37+Technical</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS37+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.97420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.44087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.933,   p = 0.0188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 6.933,   p = 0.00846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.91223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.876,   p = 0.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.64213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.460,   p = 0.00849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.460,   p = 0.0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999269265937025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_Endocrine__SBS39+PolH</t>
   </si>
   <si>
-    <t xml:space="preserve">statusPolH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolH+SBS39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.08514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.0892132688795749</t>
-  </si>
-  <si>
     <t xml:space="preserve">Panc_Endocrine__HR+SBS30</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.45059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.80072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.700,   p = 0.406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.700,   p = 0.403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.63189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   p = 0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   p = 0.1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.158,   two-sided p = 0.2468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.46553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.330,   p = 0.000802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.330,   p = 0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.836355209815392</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__APOBEC+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.7486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.9832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.469,   p = 0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.469,   p = 0.493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.5328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   p = 0.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   p = 0.3623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.352,   two-sided p = 0.7247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.7422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.518,   p = 0.215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 1.518,   p = 0.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.673990455325615</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin_Melanoma__SBS40+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS38+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.4305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.6358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.411,   p = 0.538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.411,   p = 0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-215.8742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   p = 0.579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   p = 0.4205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.201,   two-sided p = 0.8411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216.0369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.802,   p = 0.312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.802,   p = 0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.961365191268632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS38</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS1+SBS38</t>
   </si>
   <si>
     <t xml:space="preserve">-216.0979</t>
@@ -1856,13 +1813,13 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.208142926718781</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+UV</t>
   </si>
   <si>
     <t xml:space="preserve">statusUV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5+UV</t>
+    <t xml:space="preserve">statusCL SBS5+UV</t>
   </si>
   <si>
     <t xml:space="preserve">-217.1198</t>
@@ -2212,7 +2169,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -2307,7 +2264,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B9" t="n">
         <v>-16.2475988388779</v>
@@ -2327,7 +2284,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
         <v>1.24470349522052</v>
@@ -2360,10 +2317,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -2438,7 +2395,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B41" t="n">
         <v>-16.2687342702573</v>
@@ -2458,7 +2415,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B42" t="n">
         <v>1.26270307420675</v>
@@ -2491,10 +2448,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -2524,7 +2481,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
@@ -2544,7 +2501,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
@@ -2564,7 +2521,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -2639,7 +2596,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B74" t="n">
         <v>-16.2865404299179</v>
@@ -2659,7 +2616,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B75" t="n">
         <v>1.25140724386515</v>
@@ -2692,10 +2649,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
@@ -2725,7 +2682,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
@@ -2745,7 +2702,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
@@ -2755,7 +2712,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
@@ -2765,7 +2722,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -2820,7 +2777,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
         <v>-16.3086017355389</v>
@@ -2840,7 +2797,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="B107" t="n">
         <v>1.26935773732727</v>
@@ -2873,10 +2830,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
@@ -2906,7 +2863,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -2926,7 +2883,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
@@ -2946,7 +2903,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
@@ -2956,7 +2913,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +2932,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -3013,19 +2970,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0332911213701195</v>
+        <v>0.00885463234033144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.967256929434188</v>
+        <v>1.00889395056105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.068386086900545</v>
+        <v>0.0183406907790493</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.486811321995004</v>
+        <v>0.482786196387225</v>
       </c>
       <c r="F6" t="n">
-        <v>0.626392046121228</v>
+        <v>0.629247552890639</v>
       </c>
     </row>
     <row r="7">
@@ -3033,79 +2990,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1.81096519103186</v>
+        <v>-0.11223532457941</v>
       </c>
       <c r="C7" t="n">
-        <v>6.11634802843602</v>
+        <v>0.893833891664584</v>
       </c>
       <c r="D7" t="n">
-        <v>1.11829311419476</v>
+        <v>0.242268762452765</v>
       </c>
       <c r="E7" t="n">
-        <v>1.61940118207368</v>
+        <v>-0.463267832976579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.105360972679991</v>
+        <v>0.643172399678532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>3.10664050283442</v>
+        <v>-0.594460142992926</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3458473484989</v>
+        <v>0.551860411173557</v>
       </c>
       <c r="D8" t="n">
-        <v>1.66334898228785</v>
+        <v>0.443167466687892</v>
       </c>
       <c r="E8" t="n">
-        <v>1.86770216948785</v>
+        <v>-1.34138940169899</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0618035960838646</v>
+        <v>0.179794056768469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B9" t="n">
-        <v>1.64919208677677</v>
+        <v>-16.2475988388779</v>
       </c>
       <c r="C9" t="n">
-        <v>5.2027747382266</v>
+        <v>0.0000000878531787723064</v>
       </c>
       <c r="D9" t="n">
-        <v>1.68785685279803</v>
+        <v>3392.01624486674</v>
       </c>
       <c r="E9" t="n">
-        <v>0.977092390295323</v>
+        <v>-0.00478995313287961</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328523414756174</v>
+        <v>0.99617818496271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
-        <v>3.3549043470439</v>
+        <v>1.24470349522052</v>
       </c>
       <c r="C10" t="n">
-        <v>28.6428642850285</v>
+        <v>3.47190521021658</v>
       </c>
       <c r="D10" t="n">
-        <v>1.88592478050915</v>
+        <v>0.404950795318481</v>
       </c>
       <c r="E10" t="n">
-        <v>1.77891736813499</v>
+        <v>3.07371539853774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0752533102067495</v>
+        <v>0.00211411008885657</v>
       </c>
     </row>
     <row r="12">
@@ -3123,10 +3080,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -3164,79 +3121,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>1.55004855748392</v>
+        <v>-0.119895487401614</v>
       </c>
       <c r="C39" t="n">
-        <v>4.7116989652829</v>
+        <v>0.887013135920593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.972893873426725</v>
+        <v>0.242251581377469</v>
       </c>
       <c r="E39" t="n">
-        <v>1.59323498669423</v>
+        <v>-0.494921381812557</v>
       </c>
       <c r="F39" t="n">
-        <v>0.111107485226976</v>
+        <v>0.620655616937594</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>2.96045973985774</v>
+        <v>-0.551646306354333</v>
       </c>
       <c r="C40" t="n">
-        <v>19.3068458420215</v>
+        <v>0.576000755673277</v>
       </c>
       <c r="D40" t="n">
-        <v>1.62826263375348</v>
+        <v>0.434804473259346</v>
       </c>
       <c r="E40" t="n">
-        <v>1.81817090098866</v>
+        <v>-1.26872270245779</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0690380160604809</v>
+        <v>0.204539982446766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B41" t="n">
-        <v>1.20147258240562</v>
+        <v>-16.2687342702573</v>
       </c>
       <c r="C41" t="n">
-        <v>3.32500967010424</v>
+        <v>0.0000000860158487176414</v>
       </c>
       <c r="D41" t="n">
-        <v>1.42285394834319</v>
+        <v>3424.87099754211</v>
       </c>
       <c r="E41" t="n">
-        <v>0.84441033726943</v>
+        <v>-0.00475017432245848</v>
       </c>
       <c r="F41" t="n">
-        <v>0.398440147859821</v>
+        <v>0.996209923500306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="B42" t="n">
-        <v>2.92619342108285</v>
+        <v>1.26270307420675</v>
       </c>
       <c r="C42" t="n">
-        <v>18.6564778033443</v>
+        <v>3.53496385430858</v>
       </c>
       <c r="D42" t="n">
-        <v>1.65793350026528</v>
+        <v>0.403006088313353</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76496428874538</v>
+        <v>3.13321091373922</v>
       </c>
       <c r="F42" t="n">
-        <v>0.077569767717975</v>
+        <v>0.00172905147741747</v>
       </c>
     </row>
     <row r="45">
@@ -3254,10 +3211,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -3287,7 +3244,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
@@ -3307,7 +3264,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
@@ -3327,7 +3284,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -3365,79 +3322,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0370700761021768</v>
+        <v>0.00942847934968648</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03776574086825</v>
+        <v>1.0094730674837</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0550076598808115</v>
+        <v>0.0183845624722346</v>
       </c>
       <c r="E72" t="n">
-        <v>0.673907528196961</v>
+        <v>0.512847633112069</v>
       </c>
       <c r="F72" t="n">
-        <v>0.50037010566794</v>
+        <v>0.608057906948744</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>3.00190997862993</v>
+        <v>-0.55568403279461</v>
       </c>
       <c r="C73" t="n">
-        <v>20.1239365290213</v>
+        <v>0.573679711217138</v>
       </c>
       <c r="D73" t="n">
-        <v>1.68638602710094</v>
+        <v>0.436370288374406</v>
       </c>
       <c r="E73" t="n">
-        <v>1.78008470800158</v>
+        <v>-1.27342316284795</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07506209880737</v>
+        <v>0.202867922322827</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.296817948260661</v>
+        <v>-16.2865404299179</v>
       </c>
       <c r="C74" t="n">
-        <v>0.743179297130836</v>
+        <v>0.0000000844977922690673</v>
       </c>
       <c r="D74" t="n">
-        <v>1.34548869262647</v>
+        <v>3385.46574670774</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.220602335706928</v>
+        <v>-0.00481072373742255</v>
       </c>
       <c r="F74" t="n">
-        <v>0.825402082235208</v>
+        <v>0.996161612608969</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="B75" t="n">
-        <v>1.04135417158342</v>
+        <v>1.25140724386515</v>
       </c>
       <c r="C75" t="n">
-        <v>2.83305085488881</v>
+        <v>3.49525817882239</v>
       </c>
       <c r="D75" t="n">
-        <v>1.29825219703689</v>
+        <v>0.403670129901596</v>
       </c>
       <c r="E75" t="n">
-        <v>0.802120091889842</v>
+        <v>3.10007392464289</v>
       </c>
       <c r="F75" t="n">
-        <v>0.422483493756079</v>
+        <v>0.00193472348491199</v>
       </c>
     </row>
     <row r="78">
@@ -3455,10 +3412,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
@@ -3488,7 +3445,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
@@ -3508,7 +3465,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
@@ -3518,7 +3475,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
@@ -3528,7 +3485,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -3563,62 +3520,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>3.21250537853438</v>
+        <v>-0.504884113017743</v>
       </c>
       <c r="C105" t="n">
-        <v>24.8412450484939</v>
+        <v>0.603575517919586</v>
       </c>
       <c r="D105" t="n">
-        <v>1.67800630969423</v>
+        <v>0.424727247628095</v>
       </c>
       <c r="E105" t="n">
-        <v>1.91447753204203</v>
+        <v>-1.18872550757524</v>
       </c>
       <c r="F105" t="n">
-        <v>0.055559167276433</v>
+        <v>0.234547699741831</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0517357409793198</v>
+        <v>-16.3086017355389</v>
       </c>
       <c r="C106" t="n">
-        <v>0.949579768709626</v>
+        <v>0.0000000826540728560116</v>
       </c>
       <c r="D106" t="n">
-        <v>1.30229904316504</v>
+        <v>3420.59373184745</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.0397264677808439</v>
+        <v>-0.00476776928627846</v>
       </c>
       <c r="F106" t="n">
-        <v>0.968311200091281</v>
+        <v>0.996195884909299</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>1.20262131184336</v>
+        <v>1.26935773732727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.32883140124034</v>
+        <v>3.55856629394265</v>
       </c>
       <c r="D107" t="n">
-        <v>1.28458903901827</v>
+        <v>0.401970007762353</v>
       </c>
       <c r="E107" t="n">
-        <v>0.936191478608944</v>
+        <v>3.15784191062763</v>
       </c>
       <c r="F107" t="n">
-        <v>0.349174609810029</v>
+        <v>0.00158941726621093</v>
       </c>
     </row>
     <row r="111">
@@ -3636,10 +3593,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
@@ -3669,7 +3626,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -3689,7 +3646,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
@@ -3709,17 +3666,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3738,7 +3695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -3776,19 +3733,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0294234371928264</v>
+        <v>-0.0332911213701195</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0298605834361</v>
+        <v>0.967256929434188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0249853266474985</v>
+        <v>0.0683860869005449</v>
       </c>
       <c r="E6" t="n">
-        <v>1.17762867814146</v>
+        <v>-0.486811321995004</v>
       </c>
       <c r="F6" t="n">
-        <v>0.238944671703879</v>
+        <v>0.626392046121228</v>
       </c>
     </row>
     <row r="7">
@@ -3796,79 +3753,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.780028424435032</v>
+        <v>1.81096519103186</v>
       </c>
       <c r="C7" t="n">
-        <v>2.18153427349615</v>
+        <v>6.11634802843602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.331276279872077</v>
+        <v>1.11829311419476</v>
       </c>
       <c r="E7" t="n">
-        <v>2.35461598619811</v>
+        <v>1.61940118207368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0185418561584195</v>
+        <v>0.105360972679991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.64919208677677</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.20277473822661</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
+        <v>1.68785685279803</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.977092390295325</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.328523414756174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
+        <v>342</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.10664050283442</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.3458473484989</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
+        <v>1.66334898228785</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.86770216948785</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0618035960838646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>346</v>
       </c>
       <c r="B10" t="n">
-        <v>1.97649355887056</v>
+        <v>3.3549043470439</v>
       </c>
       <c r="C10" t="n">
-        <v>7.21739120650287</v>
+        <v>28.6428642850286</v>
       </c>
       <c r="D10" t="n">
-        <v>1.16294262862986</v>
+        <v>1.88592478050915</v>
       </c>
       <c r="E10" t="n">
-        <v>1.6995623947496</v>
+        <v>1.77891736813499</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0892132688795749</v>
+        <v>0.0752533102067492</v>
       </c>
     </row>
     <row r="12">
@@ -3886,10 +3843,773 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.55004855748392</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.7116989652829</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.972893873426725</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.59323498669423</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.111107485226976</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.20147258240562</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.32500967010425</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.42285394834319</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.844410337269431</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.398440147859821</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.96045973985774</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19.3068458420216</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.62826263375348</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.81817090098866</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0690380160604808</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.92619342108285</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18.6564778033443</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.65793350026528</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.76496428874538</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0775697677179754</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0370700761021768</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.03776574086825</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0550076598808115</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.673907528196961</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.50037010566794</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.296817948260658</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.743179297130838</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.34548869262647</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.220602335706926</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.825402082235209</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.00190997862993</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20.1239365290214</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.68638602710095</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.78008470800158</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.07506209880737</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.04135417158342</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.83305085488882</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.29825219703689</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.802120091889843</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.422483493756078</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.0517357409793214</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.949579768709624</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.30229904316504</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.0397264677808451</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.96831120009128</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.21250537853437</v>
+      </c>
+      <c r="C106" t="n">
+        <v>24.8412450484939</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.67800630969423</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.91447753204203</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.055559167276433</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.20262131184336</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.32883140124033</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.28458903901827</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.936191478608943</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.349174609810029</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0294234371928264</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0298605834361</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0249853266474985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.17762867814146</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.238944671703879</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.780028424435032</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.18153427349615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.331276279872077</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.35461598619811</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0185418561584195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.97649355887056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.21739120650287</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.16294262862986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.6995623947496</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0892132688795749</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35">
@@ -3899,7 +4619,187 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>543</v>
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0294234371928264</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0298605834361</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0249853266474985</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.17762867814146</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.238944671703879</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.780028424435032</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.18153427349615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.331276279872077</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.35461598619811</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0185418561584195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.97649355887056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.21739120650287</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.16294262862986</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.6995623947496</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0892132688795749</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
